--- a/docs/LAPR3-2021-Self-Assessment-Sprint2.xlsx
+++ b/docs/LAPR3-2021-Self-Assessment-Sprint2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp-my.sharepoint.com/personal/1201045_isep_ipp_pt/Documents/Desktop/University/2nd Year/1st Semester/LAPR3/SPRINT 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Dias\Documents\lapr3-2021-g021\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B95820-2E50-47AB-B982-8C0313DA1C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F814A5-75E5-464D-9B8C-9D6F102245EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4632" yWindow="1884" windowWidth="17220" windowHeight="8964" xr2:uid="{5ECC33D7-267E-3941-AADB-18CFA00ADDCE}"/>
+    <workbookView xWindow="0" yWindow="4365" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{5ECC33D7-267E-3941-AADB-18CFA00ADDCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2005,11 +2005,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51149F-37F8-9041-812D-F0949B9CB00F}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
@@ -2017,25 +2017,25 @@
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2046,13 +2046,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.149999999999999" thickBot="1"/>
-    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1">
+    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="79" t="s">
@@ -2074,7 +2074,7 @@
       <c r="S8" s="80"/>
       <c r="T8" s="81"/>
     </row>
-    <row r="9" spans="1:20" ht="105.95" customHeight="1">
+    <row r="9" spans="1:20" ht="105.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="44">
@@ -2141,7 +2141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="76" t="s">
         <v>7</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="77"/>
       <c r="C11" s="75">
         <v>1200991</v>
@@ -2201,7 +2201,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="77"/>
       <c r="C12" s="75">
         <v>1201029</v>
@@ -2236,7 +2236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="77"/>
       <c r="C13" s="75">
         <v>1201045</v>
@@ -2269,7 +2269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="77"/>
       <c r="C14" s="75">
         <v>1201154</v>
@@ -2302,7 +2302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="77"/>
       <c r="C15" s="8" t="s">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="77"/>
       <c r="C16" s="8" t="s">
         <v>9</v>
@@ -2352,7 +2352,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.149999999999999" thickBot="1">
+    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="77"/>
       <c r="C17" s="8" t="s">
         <v>10</v>
@@ -2377,7 +2377,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.149999999999999" thickBot="1">
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="77"/>
       <c r="C18" s="8" t="s">
         <v>11</v>
@@ -2402,7 +2402,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.149999999999999" thickBot="1">
+    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="77"/>
       <c r="C19" s="8" t="s">
         <v>12</v>
@@ -2427,7 +2427,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.149999999999999" thickBot="1">
+    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="77"/>
       <c r="C20" s="8" t="s">
         <v>13</v>
@@ -2452,7 +2452,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.149999999999999" thickBot="1">
+    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="77"/>
       <c r="C21" s="8" t="s">
         <v>14</v>
@@ -2477,7 +2477,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.149999999999999" thickBot="1">
+    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="77"/>
       <c r="C22" s="8" t="s">
         <v>15</v>
@@ -2502,7 +2502,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.149999999999999" thickBot="1">
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="77"/>
       <c r="C23" s="8" t="s">
         <v>16</v>
@@ -2527,7 +2527,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.149999999999999" thickBot="1">
+    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="78"/>
       <c r="C24" s="42" t="s">
         <v>17</v>
@@ -2552,7 +2552,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.149999999999999" thickBot="1">
+    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="47" t="s">
         <v>6</v>
@@ -2619,27 +2619,27 @@
       </c>
       <c r="S25" s="55"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2706,11 +2706,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049E9D47-BAA1-5945-9716-C25FEE03B60C}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -2718,13 +2718,13 @@
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.149999999999999" thickBot="1"/>
-    <row r="3" spans="1:10">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
         <v>29</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.15">
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="77"/>
       <c r="B4" s="85"/>
       <c r="C4" s="85"/>
@@ -2780,7 +2780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="47.45" thickBot="1">
+    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77"/>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
@@ -2804,7 +2804,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="46.9">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>45</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="46.9">
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>48</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.9">
+    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>50</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="46.9">
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>52</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="46.9">
+    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>53</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="46.9">
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>54</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="46.9">
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>55</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="46.9">
+    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>56</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="46.9">
+    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>57</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="46.9">
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>58</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="46.9">
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3134,7 +3134,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="46.9">
+    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3158,7 +3158,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="46.9">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3182,7 +3182,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="46.9">
+    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3206,7 +3206,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="46.9">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3230,7 +3230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="46.9">
+    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3254,7 +3254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="46.9">
+    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3278,7 +3278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="46.9">
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3302,7 +3302,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="46.9">
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3326,7 +3326,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="47.45" thickBot="1">
+    <row r="25" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -3470,21 +3470,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B77AED-41D5-8047-A901-AF6E531ADCF8}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="30.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
     <col min="2" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.149999999999999" thickBot="1"/>
-    <row r="3" spans="1:6" ht="36" customHeight="1" thickBot="1">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>60</v>
       </c>
@@ -3504,7 +3506,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="36" customHeight="1">
+    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>66</v>
       </c>
@@ -3525,7 +3527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1">
+    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>67</v>
       </c>
@@ -3533,7 +3535,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="30">
-        <v>83.4</v>
+        <v>84</v>
       </c>
       <c r="D5" s="7">
         <v>75</v>
@@ -3543,10 +3545,10 @@
       </c>
       <c r="F5" s="16">
         <f>IF(((C5-D5)/(E5-D5)*100)&gt;100,100,(C5-D5)/(E5-D5)*100)</f>
-        <v>84.000000000000057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="36" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>68</v>
       </c>
@@ -3567,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="36" customHeight="1" thickBot="1">
+    <row r="7" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>69</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1">
+    <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>70</v>
       </c>
@@ -3600,10 +3602,10 @@
       <c r="E8" s="56"/>
       <c r="F8" s="57">
         <f>SUMPRODUCT(B4:B7,F4:F7)/100</f>
-        <v>51.640000000000008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="36" customHeight="1" thickBot="1">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="65"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66"/>
@@ -3613,7 +3615,7 @@
       </c>
       <c r="F9" s="68">
         <f>IF((F8/B8)&lt;0,0,(F8/B8))</f>
-        <v>0.93890909090909103</v>
+        <v>0.96181818181818179</v>
       </c>
     </row>
   </sheetData>
@@ -3629,7 +3631,7 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
@@ -3650,7 +3652,7 @@
     <col min="29" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>72</v>
       </c>
@@ -3669,8 +3671,8 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:26" ht="16.149999999999999" thickBot="1"/>
-    <row r="3" spans="1:26" ht="60">
+    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>73</v>
       </c>
@@ -3771,7 +3773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="31.15">
+    <row r="4" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>75</v>
       </c>
@@ -3780,67 +3782,67 @@
       </c>
       <c r="C4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="D4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="E4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="F4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="G4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="H4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="I4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="J4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="K4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="L4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="M4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="N4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="O4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="P4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="Q4" s="31">
         <f>'Code Quality'!$F$9*5</f>
-        <v>4.6945454545454552</v>
+        <v>4.8090909090909086</v>
       </c>
       <c r="R4" s="28">
         <f>AVERAGE(C4:Q4)</f>
-        <v>4.6945454545454561</v>
+        <v>4.8090909090909104</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>76</v>
@@ -3863,7 +3865,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" spans="1:26" ht="62.45">
+    <row r="5" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>77</v>
       </c>
@@ -3920,7 +3922,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="124.9">
+    <row r="6" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>84</v>
       </c>
@@ -3977,7 +3979,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" ht="78">
+    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>91</v>
       </c>
@@ -4034,7 +4036,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" spans="1:26" ht="93.6">
+    <row r="8" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>97</v>
       </c>
@@ -4091,7 +4093,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>71</v>
       </c>
@@ -4101,63 +4103,63 @@
       </c>
       <c r="C9" s="7">
         <f>SUMPRODUCT(C4:C8,$B$4:$B$8)</f>
-        <v>4.8930909090909092</v>
+        <v>4.9331818181818177</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" ref="D9:Q9" si="1">SUMPRODUCT(D4:D8,$B$4:$B$8)</f>
-        <v>4.8930909090909092</v>
+        <v>4.9331818181818177</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>4.8930909090909092</v>
+        <v>4.9331818181818177</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>4.8930909090909092</v>
+        <v>4.9331818181818177</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="1"/>
-        <v>4.8930909090909092</v>
+        <v>4.9331818181818177</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>1.6430909090909092</v>
+        <v>1.6831818181818179</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="1"/>
-        <v>1.6430909090909092</v>
+        <v>1.6831818181818179</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="1"/>
-        <v>1.6430909090909092</v>
+        <v>1.6831818181818179</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="1"/>
-        <v>1.6430909090909092</v>
+        <v>1.6831818181818179</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="1"/>
-        <v>1.6430909090909092</v>
+        <v>1.6831818181818179</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="1"/>
-        <v>1.6430909090909092</v>
+        <v>1.6831818181818179</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" si="1"/>
-        <v>1.6430909090909092</v>
+        <v>1.6831818181818179</v>
       </c>
       <c r="O9" s="7">
         <f t="shared" si="1"/>
-        <v>1.6430909090909092</v>
+        <v>1.6831818181818179</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="1"/>
-        <v>1.6430909090909092</v>
+        <v>1.6831818181818179</v>
       </c>
       <c r="Q9" s="7">
         <f t="shared" si="1"/>
-        <v>1.6430909090909092</v>
+        <v>1.6831818181818179</v>
       </c>
       <c r="R9" s="28"/>
       <c r="S9" s="7"/>
@@ -4169,70 +4171,70 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" ht="16.149999999999999" thickBot="1">
+    <row r="10" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24">
         <f>C9/5*20</f>
-        <v>19.572363636363637</v>
+        <v>19.732727272727271</v>
       </c>
       <c r="D10" s="24">
         <f t="shared" ref="D10:Q10" si="2">D9/5*20</f>
-        <v>19.572363636363637</v>
+        <v>19.732727272727271</v>
       </c>
       <c r="E10" s="24">
         <f t="shared" si="2"/>
-        <v>19.572363636363637</v>
+        <v>19.732727272727271</v>
       </c>
       <c r="F10" s="24">
         <f t="shared" si="2"/>
-        <v>19.572363636363637</v>
+        <v>19.732727272727271</v>
       </c>
       <c r="G10" s="24">
         <f t="shared" si="2"/>
-        <v>19.572363636363637</v>
+        <v>19.732727272727271</v>
       </c>
       <c r="H10" s="24">
         <f t="shared" si="2"/>
-        <v>6.5723636363636366</v>
+        <v>6.7327272727272716</v>
       </c>
       <c r="I10" s="24">
         <f t="shared" si="2"/>
-        <v>6.5723636363636366</v>
+        <v>6.7327272727272716</v>
       </c>
       <c r="J10" s="24">
         <f t="shared" si="2"/>
-        <v>6.5723636363636366</v>
+        <v>6.7327272727272716</v>
       </c>
       <c r="K10" s="24">
         <f t="shared" si="2"/>
-        <v>6.5723636363636366</v>
+        <v>6.7327272727272716</v>
       </c>
       <c r="L10" s="24">
         <f t="shared" si="2"/>
-        <v>6.5723636363636366</v>
+        <v>6.7327272727272716</v>
       </c>
       <c r="M10" s="24">
         <f t="shared" si="2"/>
-        <v>6.5723636363636366</v>
+        <v>6.7327272727272716</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="2"/>
-        <v>6.5723636363636366</v>
+        <v>6.7327272727272716</v>
       </c>
       <c r="O10" s="24">
         <f t="shared" si="2"/>
-        <v>6.5723636363636366</v>
+        <v>6.7327272727272716</v>
       </c>
       <c r="P10" s="24">
         <f t="shared" si="2"/>
-        <v>6.5723636363636366</v>
+        <v>6.7327272727272716</v>
       </c>
       <c r="Q10" s="24">
         <f t="shared" si="2"/>
-        <v>6.5723636363636366</v>
+        <v>6.7327272727272716</v>
       </c>
       <c r="R10" s="29"/>
       <c r="S10" s="24"/>
@@ -4244,7 +4246,7 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="17"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>104</v>
       </c>
@@ -4264,11 +4266,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C190218-096C-D04F-B5E6-6BE0B32B2632}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
@@ -4288,7 +4290,7 @@
     <col min="29" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>105</v>
       </c>
@@ -4307,7 +4309,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="3" spans="1:26" ht="57">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>73</v>
       </c>
@@ -4408,7 +4410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
@@ -4465,7 +4467,7 @@
       <c r="Y4" s="70"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>113</v>
       </c>
@@ -4522,7 +4524,7 @@
       <c r="Y5" s="70"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="46.9">
+    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>120</v>
       </c>
@@ -4579,7 +4581,7 @@
       <c r="Y6" s="70"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" ht="46.9">
+    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>127</v>
       </c>
@@ -4636,7 +4638,7 @@
       <c r="Y7" s="70"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" spans="1:26" ht="62.45">
+    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>133</v>
       </c>
@@ -4693,7 +4695,7 @@
       <c r="Y8" s="70"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" spans="1:26" ht="62.45">
+    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>139</v>
       </c>
@@ -4746,7 +4748,7 @@
       <c r="Y9" s="70"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" ht="93.6">
+    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>144</v>
       </c>
@@ -4803,7 +4805,7 @@
       <c r="Y10" s="70"/>
       <c r="Z10" s="16"/>
     </row>
-    <row r="11" spans="1:26" ht="31.15">
+    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>150</v>
       </c>
@@ -4860,7 +4862,7 @@
       <c r="Y11" s="70"/>
       <c r="Z11" s="16"/>
     </row>
-    <row r="12" spans="1:26" ht="31.15">
+    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>156</v>
       </c>
@@ -4917,7 +4919,7 @@
       <c r="Y12" s="70"/>
       <c r="Z12" s="16"/>
     </row>
-    <row r="13" spans="1:26" ht="46.9">
+    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>157</v>
       </c>
@@ -4974,7 +4976,7 @@
       <c r="Y13" s="70"/>
       <c r="Z13" s="16"/>
     </row>
-    <row r="14" spans="1:26" ht="31.15">
+    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>164</v>
       </c>
@@ -5031,7 +5033,7 @@
       <c r="Y14" s="70"/>
       <c r="Z14" s="16"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>71</v>
       </c>
@@ -5109,7 +5111,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="16"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>103</v>
       </c>
@@ -5184,7 +5186,7 @@
       <c r="Y16" s="24"/>
       <c r="Z16" s="17"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>104</v>
       </c>
@@ -5206,7 +5208,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5397,12 +5399,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5411,14 +5407,43 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA1CEFC-B112-44A5-8B0C-097F64092DA8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA1CEFC-B112-44A5-8B0C-097F64092DA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>